--- a/data/vgp_database/Rattlesnake_Hills_volcanics.xlsx
+++ b/data/vgp_database/Rattlesnake_Hills_volcanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450D608C-E968-584A-9184-EC4E95ABD158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AFD6A4-2EED-6746-B5E3-9BD4C0F71C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="720" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="104">
   <si>
     <t>Name:</t>
   </si>
@@ -345,69 +345,6 @@
   </si>
   <si>
     <t>10.1029/GL007i008p00589</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00590</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00591</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00592</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00593</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00594</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00595</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00596</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00597</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00598</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00599</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00600</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00601</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00602</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00603</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00604</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00605</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00606</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00607</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00608</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00609</t>
-  </si>
-  <si>
-    <t>10.1029/GL007i008p00610</t>
   </si>
   <si>
     <t>Not Specified</t>
@@ -809,7 +746,7 @@
   <dimension ref="A1:AQ838"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9:AA30"/>
+      <selection activeCell="AP10" sqref="AP10:AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1413,7 @@
         <v>101</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="21" t="s">
         <v>97</v>
@@ -1585,7 +1522,7 @@
         <v>101</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB10" s="21" t="s">
         <v>98</v>
@@ -1623,8 +1560,9 @@
       <c r="AO10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP10" s="22" t="s">
-        <v>103</v>
+      <c r="AP10" s="22" t="str">
+        <f>AP9</f>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ10" s="10"/>
     </row>
@@ -1694,7 +1632,7 @@
         <v>101</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB11" s="21" t="s">
         <v>97</v>
@@ -1732,8 +1670,9 @@
       <c r="AO11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP11" s="22" t="s">
-        <v>104</v>
+      <c r="AP11" s="22" t="str">
+        <f t="shared" ref="AP11:AP30" si="0">AP10</f>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ11" s="10"/>
     </row>
@@ -1803,7 +1742,7 @@
         <v>101</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB12" s="21" t="s">
         <v>99</v>
@@ -1841,8 +1780,9 @@
       <c r="AO12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP12" s="22" t="s">
-        <v>105</v>
+      <c r="AP12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ12" s="10"/>
     </row>
@@ -1912,7 +1852,7 @@
         <v>101</v>
       </c>
       <c r="AA13" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB13" s="21" t="s">
         <v>98</v>
@@ -1950,8 +1890,9 @@
       <c r="AO13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP13" s="22" t="s">
-        <v>106</v>
+      <c r="AP13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ13" s="10"/>
     </row>
@@ -2017,7 +1958,7 @@
         <v>101</v>
       </c>
       <c r="AA14" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB14" s="21" t="s">
         <v>100</v>
@@ -2059,8 +2000,9 @@
       <c r="AO14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP14" s="22" t="s">
-        <v>107</v>
+      <c r="AP14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ14" s="10"/>
     </row>
@@ -2130,7 +2072,7 @@
         <v>101</v>
       </c>
       <c r="AA15" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB15" s="21" t="s">
         <v>98</v>
@@ -2168,8 +2110,9 @@
       <c r="AO15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP15" s="22" t="s">
-        <v>108</v>
+      <c r="AP15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ15" s="10"/>
     </row>
@@ -2239,7 +2182,7 @@
         <v>101</v>
       </c>
       <c r="AA16" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB16" s="21" t="s">
         <v>97</v>
@@ -2277,8 +2220,9 @@
       <c r="AO16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP16" s="22" t="s">
-        <v>109</v>
+      <c r="AP16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ16" s="10"/>
     </row>
@@ -2348,7 +2292,7 @@
         <v>101</v>
       </c>
       <c r="AA17" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB17" s="21" t="s">
         <v>97</v>
@@ -2386,8 +2330,9 @@
       <c r="AO17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP17" s="22" t="s">
-        <v>110</v>
+      <c r="AP17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ17" s="10"/>
     </row>
@@ -2457,7 +2402,7 @@
         <v>101</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB18" s="21" t="s">
         <v>97</v>
@@ -2495,8 +2440,9 @@
       <c r="AO18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP18" s="22" t="s">
-        <v>111</v>
+      <c r="AP18" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -2562,7 +2508,7 @@
         <v>101</v>
       </c>
       <c r="AA19" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB19" s="21" t="s">
         <v>97</v>
@@ -2604,8 +2550,9 @@
       <c r="AO19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP19" s="22" t="s">
-        <v>112</v>
+      <c r="AP19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ19" s="10"/>
     </row>
@@ -2675,7 +2622,7 @@
         <v>101</v>
       </c>
       <c r="AA20" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB20" s="21" t="s">
         <v>97</v>
@@ -2713,8 +2660,9 @@
       <c r="AO20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP20" s="22" t="s">
-        <v>113</v>
+      <c r="AP20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ20" s="10"/>
     </row>
@@ -2784,7 +2732,7 @@
         <v>101</v>
       </c>
       <c r="AA21" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB21" s="21" t="s">
         <v>88</v>
@@ -2822,8 +2770,9 @@
       <c r="AO21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP21" s="22" t="s">
-        <v>114</v>
+      <c r="AP21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ21" s="10"/>
     </row>
@@ -2893,7 +2842,7 @@
         <v>101</v>
       </c>
       <c r="AA22" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB22" s="21" t="s">
         <v>98</v>
@@ -2931,8 +2880,9 @@
       <c r="AO22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP22" s="22" t="s">
-        <v>115</v>
+      <c r="AP22" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ22" s="10"/>
     </row>
@@ -3002,7 +2952,7 @@
         <v>101</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB23" s="21" t="s">
         <v>98</v>
@@ -3044,8 +2994,9 @@
       <c r="AO23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP23" s="22" t="s">
-        <v>116</v>
+      <c r="AP23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ23" s="10"/>
     </row>
@@ -3115,7 +3066,7 @@
         <v>101</v>
       </c>
       <c r="AA24" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB24" s="21" t="s">
         <v>97</v>
@@ -3153,8 +3104,9 @@
       <c r="AO24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP24" s="22" t="s">
-        <v>117</v>
+      <c r="AP24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ24" s="10"/>
     </row>
@@ -3224,7 +3176,7 @@
         <v>101</v>
       </c>
       <c r="AA25" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB25" s="21" t="s">
         <v>98</v>
@@ -3262,8 +3214,9 @@
       <c r="AO25" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP25" s="22" t="s">
-        <v>118</v>
+      <c r="AP25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ25" s="10"/>
     </row>
@@ -3333,7 +3286,7 @@
         <v>101</v>
       </c>
       <c r="AA26" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB26" s="21" t="s">
         <v>88</v>
@@ -3371,8 +3324,9 @@
       <c r="AO26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP26" s="22" t="s">
-        <v>119</v>
+      <c r="AP26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ26" s="10"/>
     </row>
@@ -3442,7 +3396,7 @@
         <v>101</v>
       </c>
       <c r="AA27" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB27" s="21" t="s">
         <v>98</v>
@@ -3480,8 +3434,9 @@
       <c r="AO27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP27" s="22" t="s">
-        <v>120</v>
+      <c r="AP27" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ27" s="10"/>
     </row>
@@ -3551,7 +3506,7 @@
         <v>101</v>
       </c>
       <c r="AA28" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB28" s="21" t="s">
         <v>98</v>
@@ -3589,8 +3544,9 @@
       <c r="AO28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP28" s="22" t="s">
-        <v>121</v>
+      <c r="AP28" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ28" s="10"/>
     </row>
@@ -3660,7 +3616,7 @@
         <v>101</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB29" s="21" t="s">
         <v>99</v>
@@ -3698,8 +3654,9 @@
       <c r="AO29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP29" s="22" t="s">
-        <v>122</v>
+      <c r="AP29" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ29" s="10"/>
     </row>
@@ -3765,7 +3722,7 @@
         <v>101</v>
       </c>
       <c r="AA30" s="21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="AB30" s="21" t="s">
         <v>98</v>
@@ -3807,8 +3764,9 @@
       <c r="AO30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AP30" s="22" t="s">
-        <v>123</v>
+      <c r="AP30" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL007i008p00589</v>
       </c>
       <c r="AQ30" s="10"/>
     </row>
@@ -40176,7 +40134,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" display="https://doi.org/10.1029/GL007i008p00589" xr:uid="{71527B8C-A2CB-2B4F-8CBF-52870DE02776}"/>
-    <hyperlink ref="AP10:AP30" r:id="rId2" display="https://doi.org/10.1029/GL007i008p00589" xr:uid="{D33E81D2-7754-C04F-8EAA-2931A019EE2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
